--- a/va_facility_data_2025-02-20/Truth or Consequences VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Truth%20or%20Consequences%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Truth or Consequences VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Truth%20or%20Consequences%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R34a8b1cd6a4f43d8afd9ff62f9cf819d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra65218809418478f9df66ef40d85364b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re986261e2f79441eb079a1dcd07f640d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R911946b148724720b4df44969a5c39b7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1fd2871b10cd4f648a74ecd90da165f6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Racc2fe3013214c4e99285ba3f2b5368c"/>
   </x:sheets>
 </x:workbook>
 </file>
